--- a/biology/Médecine/Veine_cérébrale_moyenne_profonde/Veine_cérébrale_moyenne_profonde.xlsx
+++ b/biology/Médecine/Veine_cérébrale_moyenne_profonde/Veine_cérébrale_moyenne_profonde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_c%C3%A9r%C3%A9brale_moyenne_profonde</t>
+          <t>Veine_cérébrale_moyenne_profonde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine cérébrale moyenne profonde (ou veine profonde moyenne du cerveau ou veine sylvienne profonde) est une veine paire parfois dédoublée, qui accompagne l'artère cérébrale moyenne profonde.
 Elle draine les gyrus de l'insula par les veines insulaires.
